--- a/EXCEL/G120C_failure_code_list.xlsx
+++ b/EXCEL/G120C_failure_code_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -566,7 +566,6 @@
           <t xml:space="preserve">处理： -重新为所有组件上电（断电/上电）。
 -将固件升级到新版本。
 - 联系技术支持。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -705,7 +704,6 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">原因： 控制组件（控制单元）的温度(r0037[0])超出预设的极限值。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -1368,7 +1366,6 @@
         <is>
           <t xml:space="preserve">处理： -备份参数(p0971)。
 -重新给控制单元上电（断电/上电）。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -1573,7 +1570,6 @@
         <is>
           <t xml:space="preserve">处理： 检查非易失性存储器中 .../USER/SINAMICS/DATA/...目录下文件属性是否已设置为“写保护”。如果是，取消该
 属性并再次保存（例如：设置 p0971=1）。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -1709,7 +1705,6 @@
           <t xml:space="preserve">原因： 用于保存参数修改的非易失性中间存储器存储量达到 100%。
 中间存储器中将不再保存后面的所有参数修改。但是在 RAM 中会暂时保存参数修改。
 中间存储器激活（p0014 = 1）并通过场总线系统持续修改参数时，可能会出现此情况。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -2270,7 +2265,6 @@
 系统中周期的最小公约数太大，无法确定。
 901:
 硬件无法形成系统中周期的最小公约数。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -2394,7 +2388,6 @@
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 无需采取任何措施。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -2668,7 +2661,6 @@
 6165: 在接收 PROFIsafe 报文时确定了一个通讯故障。在关闭并重新接通控制单元后，或在插入 PROFIBUS/PROFINET 
 电缆后接收到不一致或过期报文时，会发生此故障。
 6166: 在接收 PROFIsafe 报文时确定了一个时间监控故障。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -2729,7 +2721,6 @@
 -检查 PROFIsafe 从站上 F 参数 F_WD_Time 中值的设置，必要时增大该值。
 -查看 F 主机中的诊断信息。
 -检查 PROFIsafe 连接。
-SINAMICS G120C
 -检查驱动的所有 F 参数是否与 F 主站的 F 参数都一致。
 “原因”中未指出的故障值：
 - 重新上电（断电/上电）。
@@ -2985,7 +2976,6 @@
 2005: 安全日志检测出，功能性安全校验和已改变。需要进行验收测试。
 2020：保存处理器2安全数时出错。
 9999：在启中输出的另一个安全故障的后续反应，它要求验收测试。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -3084,7 +3074,6 @@
 310, 320: 配置的用于控制系统发送数据的安全槽的格式不能识别。
 330: 配置的用于 F-PLC 发送数据的安全槽的长度错误。
 331: 配置的用于 F-PLC 发送数据的安全槽的长度错误。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -3204,7 +3193,6 @@
 131：内部软件错误。
 132：上传或下载安全参数时出现通讯故障。
 255：控制单元的内部软件错误。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -3296,7 +3284,6 @@
 28：在不支持“通过功率模块端子执行 STO”功能的情况下，仍尝试使能此功能。
 参见： p0970 (驱动参数复位), p3900 (结束快速调试), r9771 (SI 通用功能 (处理器 1)), r9871 (SI 通用功能 
 (处理器 2))
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -3541,7 +3528,6 @@
         <is>
           <t xml:space="preserve">处理： -执行“从 RAM 复制到 ROM”。
 - 重新上电（断电/上电）。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -3676,7 +3662,6 @@
         <is>
           <t xml:space="preserve">原因： 启动时，因缺少脉冲使能，控制单元的自动内部自测无法结束。可能是使用了“通过功率模块端子执行 STO”功能
 且至少有一个硬件断路路径中选中了 STO。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -3795,7 +3780,6 @@
 PROFIBUS：
 - PROFIBUS 主站被设为 STOP。
 参见： p2040 (场总线 SS 监控时间), p2047 (PROFIBUS 附加监控时间)
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -4155,7 +4139,6 @@
           <t xml:space="preserve">处理： 每次跟踪最多 4 个记录通道时，将当前时间片周期设置为 &gt;= 2 ms；每次跟踪至少 5 个记录通道时，设置为 &gt;= 4 
 ms。
 可以通过 p7901 读取时间片。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -4507,7 +4490,6 @@
         <is>
           <t xml:space="preserve">处理： - 必要时取消多次跟踪(p4840[1] = 0)。
 - 取消不能组合使用的功能或设置。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -4909,7 +4891,6 @@
 -冷却是否有故障？
 -脉冲频率过高？
 参见： r0037 (功率单元温度), p0290 (功率单元过载反应)
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -6002,7 +5983,6 @@
         <is>
           <t xml:space="preserve">处理： -检测输入电压是否在允许范围内（需要时增大 p0210）。
 -检测工作周期和负载极限是否在允许的极限值内。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -6186,7 +6166,6 @@
 -没有直流母线电压。
 - 功率单元损坏
 -“捕捉再启动”功能未激活。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -6352,7 +6331,6 @@
       <c r="D162" t="inlineStr">
         <is>
           <t xml:space="preserve">原因： PID 自动优化因出现故障而中断。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -6498,7 +6476,6 @@
 - 检查功率单元，必要时进行更换。
 - 检查控制单元，必要时进行更换。
 - 修改拓扑结构后，可以通过调试软件来载入参数。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -6759,7 +6736,6 @@
         <is>
           <t xml:space="preserve">处理： - 消除引起该故障的原因。
 - 应答故障。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -7058,7 +7034,6 @@
 故障值（r0949，十进制）：
 1: 预留。
 2：通过 r1408.12（p1745）或磁通差值（r0084 ... r0083）检测失步。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -7183,7 +7158,6 @@
           <t xml:space="preserve">处理： - 检查电机馈电电缆。
 - 检查 V/f 控制的电压升高（p1310）
 - 执行静态测量，以设置定子电阻(p0350)。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -7402,7 +7376,6 @@
       <c r="E190" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 执行上电。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -7484,7 +7457,6 @@
 17：通过脉冲禁止中断。
 18：一次谐波过小。
 20: 对于旋转的电机轴和激活的“捕捉再启动”功能，要求进行磁极位置检测。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -7749,7 +7721,6 @@
 4：由于最大值限制生效，因此无法达到转速设定值。
 5：转矩限值对于转矩跳跃太小。
 6：未能发现转速环合适的设置。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -8098,7 +8069,6 @@
 -检查一个驱动对象用于输出和输入的数据字的数量。
 报警值= 501 时：
 -检查设置的 PROFIsafe 地址(p9610)。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -8346,7 +8316,6 @@
       <c r="E213" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 提高接收信息的周期时间。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -8507,7 +8476,6 @@
       <c r="D218" t="inlineStr">
         <is>
           <t xml:space="preserve">原因： 映象对象的字节数超过了使用数据的报文长度。最多允许 8 字节
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -8656,7 +8624,6 @@
 - PROFIenergy 指令 End_Pause 由上级控制器接收。
 - 上级控制器切换至 STOP 运行状态。
 - 与上级控制器的 PROFINET 连接中断。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -8993,7 +8960,6 @@
 注意：
 只有在低于 A05000 的报警阈值时，才能应答此故障。
 参见： p1800 (脉冲频率设定值)
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -9114,7 +9080,6 @@
       <c r="E233" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 请与制造商联系。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -9428,7 +9393,6 @@
 -脉冲频率过高。
 故障值（r0949，十进制）：
 散热器和芯片之间的温差[0.01 °C]。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -9523,7 +9487,6 @@
 7)：
 - 检查直流母线是否短路或者接地。
 参见： p0210 (设备输入电压)
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -9643,7 +9606,6 @@
 - 检查功率电缆连接。
 -检查功率电缆是否短路或者有接地错误。
 - 检查功率电缆长度。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -9906,7 +9868,6 @@
       <c r="E252" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 检查内部风扇，必要时更换风扇。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -10067,7 +10028,6 @@
 于报警已经存在了多长时间。
 报警值（r2124，十进制）：
 仅用于西门子内部的故障诊断。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -10358,7 +10318,6 @@
 -检查功率电缆是否短路或者有接地错误。
 - 检查功率电缆长度。
 - 更换功率单元。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -10562,7 +10521,6 @@
 PROFIsafe 控制出现故障
 出现该故障值时，Failsafe 控制信号(Failsafe Values)被传送到安全功能。
 各个值的含义在安全故障信息 F01611 中说明。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -10785,7 +10743,6 @@
       <c r="E275" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 重新上电。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -10898,7 +10855,6 @@
 20: 在不支持同时由集成的 F-DI 使能驱动集成的运动监控和由端子使能 STO 的情况下，仍尝试同时使能。
 28：在不支持“通过功率模块端子执行 STO”功能的情况下，仍尝试使能此功能。
 参见： r9771 (SI 通用功能 (处理器 1)), r9871 (SI 通用功能 (处理器 2))
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -11043,7 +10999,6 @@
 安全运行监控功能的所有修改过的参数在重新上电后才生效。
 报警值（r2124，十进制）：
 由于修改需要重新上电的安全参数。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -11378,7 +11333,6 @@
         <is>
           <t xml:space="preserve">处理： -检查传感器是否正确连接。
 -更换传感器。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -11707,7 +11661,6 @@
       <c r="E302" t="inlineStr">
         <is>
           <t xml:space="preserve">处理： 请为该功能块设置该驱动对象上尚未使用的其它顺序值。
-SINAMICS G120C
 </t>
         </is>
       </c>
@@ -11777,13 +11730,11 @@
 注释：
 故障 F50518 只识别参数设置错误的执行周期组。如果项目中在修改了 p20000[i] 后仍在下载时出现该错误，则会重
 新根据故障值(r0949)测定所涉及的执行周期组并正确设置采样时间。
-SINAMICS G120C
-SINAMICS G120C
 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>